--- a/biology/Botanique/Actée_rouge/Actée_rouge.xlsx
+++ b/biology/Botanique/Actée_rouge/Actée_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Act%C3%A9e_rouge</t>
+          <t>Actée_rouge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Actaea rubra
-L'Actée rouge[1] (Actaea rubra) est une espèce de plante de la famille des Ranunculaceae.
+L'Actée rouge (Actaea rubra) est une espèce de plante de la famille des Ranunculaceae.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Act%C3%A9e_rouge</t>
+          <t>Actée_rouge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante vivace à tige lisse (haut. 30-40 cm). Feuilles à longues queues, sauf celles du haut; toutes en 3 parties elles-mêmes découpées et dentées. Fleurs blanches, petites, réunies en grappe (long. 3-6 cm) au bout de la tige; sépales semblables aux pétales, mais se détachant tôt de la fleur. Fruit rouges et charnus, à queues grêles et vertes.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Act%C3%A9e_rouge</t>
+          <t>Actée_rouge</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Actaea rubra pousse dans des zones ombragées avec des sols humides à humides, des forêts ouvertes ou des pentes sèches. En Alaska, il s'étend de la péninsule de Kenai à l'île Kodiak, à la baie de Bristol et en amont du fleuve Yukon.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Act%C3%A9e_rouge</t>
+          <t>Actée_rouge</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes poussent lentement et mettent quelques années à devenir assez grandes pour fleurir. La sous-espèce occidentale est la ssp. arguta , et la sous-espèce du nord est la ssp. rubra .  Ces sous-espèces ne sont pas bien différenciées et, dans de nombreux endroits, chacune se classe l'une dans l'autre sur une grande partie de leurs aires de répartition.  Le feuillage est rarement consommé par les animaux au pâturage.  Les baies vénéneuses sont inoffensives pour les oiseaux, le principal disperseur de graines des plantes. 
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Act%C3%A9e_rouge</t>
+          <t>Actée_rouge</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante est cultivée dans les jardins ombragés pour ses baies attrayantes et son port dressé formant des touffes. 
 Les Amérindiens ont traditionnellement utilisé le jus des fruits de diverses espèces de baneberry pour empoisonner les flèches. 
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Act%C3%A9e_rouge</t>
+          <t>Actée_rouge</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les parties de la plante sont toxiques. Cependant, un empoisonnement accidentel est peu probable car les baies sont extrêmement amères.
 Les baies sont la partie la plus toxique de la plante. Un adulte en bonne santé subira un empoisonnement avec aussi peu que six baies. L'ingestion des baies provoque des nausées, des étourdissements, une augmentation du pouls et une gêne gastro-intestinale sévère.  Les toxines peuvent également avoir un effet sédatif immédiat sur le tissu musculaire cardiaque, ce qui peut conduire à un arrêt cardiaque si elles sont introduites dans la circulation sanguine. Deux baies seulement peuvent être mortelles pour un enfant. 
